--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB65B71-7373-4A7A-AA24-2739A72B701F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A115813-1BE0-4692-B7F3-1FE567DBCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>#内测专区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -566,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I152"/>
+  <dimension ref="A3:I169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1203,24 +1206,21 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5">
-        <v>20001</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
+        <v>19901</v>
+      </c>
+      <c r="D39" s="3">
+        <v>200</v>
       </c>
       <c r="E39" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>35</v>
@@ -1229,20 +1229,19 @@
         <v>35</v>
       </c>
       <c r="H39" s="3">
-        <v>20125</v>
-      </c>
-      <c r="I39"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="5">
-        <v>20002</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
+        <v>19902</v>
+      </c>
+      <c r="D40" s="3">
+        <v>200</v>
       </c>
       <c r="E40" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>13</v>
@@ -1251,19 +1250,18 @@
         <v>13</v>
       </c>
       <c r="H40" s="5">
-        <v>20126</v>
-      </c>
-      <c r="I40"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
-        <v>20003</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
+        <v>19903</v>
+      </c>
+      <c r="D41" s="3">
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>14</v>
@@ -1272,19 +1270,18 @@
         <v>15</v>
       </c>
       <c r="H41" s="3">
-        <v>20127</v>
-      </c>
-      <c r="I41"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C42" s="5">
-        <v>20004</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
+        <v>19904</v>
+      </c>
+      <c r="D42" s="3">
+        <v>200</v>
       </c>
       <c r="E42" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>38</v>
@@ -1293,19 +1290,18 @@
         <v>37</v>
       </c>
       <c r="H42" s="5">
-        <v>20128</v>
-      </c>
-      <c r="I42"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+        <v>20138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C43" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D43" s="5">
-        <v>1</v>
+        <v>19905</v>
+      </c>
+      <c r="D43" s="3">
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>17</v>
@@ -1314,17 +1310,16 @@
         <v>22</v>
       </c>
       <c r="H43" s="5"/>
-      <c r="I43"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C44" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
+        <v>19906</v>
+      </c>
+      <c r="D44" s="3">
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>23</v>
@@ -1332,17 +1327,16 @@
       <c r="G44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I44"/>
     </row>
     <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C45" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
+        <v>19907</v>
+      </c>
+      <c r="D45" s="3">
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>24</v>
@@ -1354,13 +1348,13 @@
     </row>
     <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C46" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
+        <v>19908</v>
+      </c>
+      <c r="D46" s="3">
+        <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>25</v>
@@ -1372,13 +1366,13 @@
     </row>
     <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C47" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D47" s="5">
-        <v>1</v>
+        <v>19909</v>
+      </c>
+      <c r="D47" s="3">
+        <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>27</v>
@@ -1390,13 +1384,13 @@
     </row>
     <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C48" s="5">
-        <v>20011</v>
+        <v>19910</v>
       </c>
       <c r="D48" s="3">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>28</v>
@@ -1406,15 +1400,15 @@
       </c>
       <c r="I48"/>
     </row>
-    <row r="49" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C49" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
+        <v>19911</v>
+      </c>
+      <c r="D49" s="3">
+        <v>200</v>
       </c>
       <c r="E49" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>29</v>
@@ -1424,15 +1418,15 @@
       </c>
       <c r="I49"/>
     </row>
-    <row r="50" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C50" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
+        <v>19912</v>
+      </c>
+      <c r="D50" s="3">
+        <v>200</v>
       </c>
       <c r="E50" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>30</v>
@@ -1442,15 +1436,15 @@
       </c>
       <c r="I50"/>
     </row>
-    <row r="51" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C51" s="5">
-        <v>20014</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
+        <v>19913</v>
+      </c>
+      <c r="D51" s="3">
+        <v>200</v>
       </c>
       <c r="E51" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>31</v>
@@ -1460,15 +1454,15 @@
       </c>
       <c r="I51"/>
     </row>
-    <row r="52" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C52" s="5">
-        <v>20015</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
+        <v>19914</v>
+      </c>
+      <c r="D52" s="3">
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>34</v>
@@ -1478,15 +1472,15 @@
       </c>
       <c r="I52"/>
     </row>
-    <row r="53" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="C53" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1</v>
+        <v>19915</v>
+      </c>
+      <c r="D53" s="3">
+        <v>200</v>
       </c>
       <c r="E53" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>45</v>
@@ -1496,112 +1490,370 @@
       </c>
       <c r="I53"/>
     </row>
-    <row r="54" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="I54"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="5">
+        <v>20001</v>
+      </c>
+      <c r="D55" s="3">
+        <v>201</v>
+      </c>
+      <c r="E55" s="3">
+        <v>201</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55" s="3">
+        <v>20125</v>
+      </c>
+      <c r="I55"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+      <c r="C56" s="5">
+        <v>20002</v>
+      </c>
+      <c r="D56" s="3">
+        <v>201</v>
+      </c>
+      <c r="E56" s="3">
+        <v>201</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" s="5">
+        <v>20126</v>
+      </c>
+      <c r="I56"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="5">
+        <v>20003</v>
+      </c>
+      <c r="D57" s="3">
+        <v>201</v>
+      </c>
+      <c r="E57" s="3">
+        <v>201</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57" s="3">
+        <v>20127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="5">
+        <v>20004</v>
+      </c>
+      <c r="D58" s="3">
+        <v>201</v>
+      </c>
+      <c r="E58" s="3">
+        <v>201</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="5">
+        <v>20128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
+        <v>20005</v>
+      </c>
+      <c r="D59" s="3">
+        <v>201</v>
+      </c>
+      <c r="E59" s="3">
+        <v>201</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C60" s="5">
+        <v>20007</v>
+      </c>
+      <c r="D60" s="3">
+        <v>201</v>
+      </c>
+      <c r="E60" s="3">
+        <v>201</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="5">
+        <v>20008</v>
+      </c>
+      <c r="D61" s="3">
+        <v>201</v>
+      </c>
+      <c r="E61" s="3">
+        <v>201</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="5">
+        <v>20009</v>
+      </c>
+      <c r="D62" s="3">
+        <v>201</v>
+      </c>
+      <c r="E62" s="3">
+        <v>201</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="5">
+        <v>20010</v>
+      </c>
+      <c r="D63" s="3">
+        <v>201</v>
+      </c>
+      <c r="E63" s="3">
+        <v>201</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C64" s="5">
+        <v>20011</v>
+      </c>
+      <c r="D64" s="3">
+        <v>201</v>
+      </c>
+      <c r="E64" s="3">
+        <v>201</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="5">
+        <v>20012</v>
+      </c>
+      <c r="D65" s="3">
+        <v>201</v>
+      </c>
+      <c r="E65" s="3">
+        <v>201</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="5">
+        <v>20013</v>
+      </c>
+      <c r="D66" s="3">
+        <v>201</v>
+      </c>
+      <c r="E66" s="3">
+        <v>201</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="5">
+        <v>20014</v>
+      </c>
+      <c r="D67" s="3">
+        <v>201</v>
+      </c>
+      <c r="E67" s="3">
+        <v>201</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="5">
+        <v>20015</v>
+      </c>
+      <c r="D68" s="3">
+        <v>201</v>
+      </c>
+      <c r="E68" s="3">
+        <v>201</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="5">
+        <v>20016</v>
+      </c>
+      <c r="D69" s="3">
+        <v>201</v>
+      </c>
+      <c r="E69" s="3">
+        <v>201</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+    </row>
     <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -1674,6 +1926,23 @@
     <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A115813-1BE0-4692-B7F3-1FE567DBCC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE028FAD-4742-446D-B71C-AEA46C130D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
   <si>
     <t>Id</t>
   </si>
@@ -169,10 +169,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#审核专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AccountCenter</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -182,10 +178,6 @@
   </si>
   <si>
     <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>#内测专区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -569,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:I169"/>
+  <dimension ref="A3:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -647,7 +639,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -676,7 +668,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="5">
-        <v>20105</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -696,7 +688,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="5">
-        <v>20106</v>
+        <v>20306</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -716,7 +708,7 @@
         <v>32</v>
       </c>
       <c r="H9" s="5">
-        <v>20107</v>
+        <v>20307</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -736,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="5">
-        <v>20108</v>
+        <v>20308</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -921,10 +913,10 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -954,7 +946,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="3">
-        <v>20115</v>
+        <v>20315</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -974,7 +966,7 @@
         <v>13</v>
       </c>
       <c r="H24" s="5">
-        <v>20116</v>
+        <v>20316</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -994,7 +986,7 @@
         <v>15</v>
       </c>
       <c r="H25" s="3">
-        <v>20117</v>
+        <v>20317</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1014,7 +1006,7 @@
         <v>37</v>
       </c>
       <c r="H26" s="5">
-        <v>20118</v>
+        <v>20318</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1120,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>112</v>
       </c>
@@ -1137,7 +1129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>113</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>114</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>115</v>
       </c>
@@ -1188,7 +1180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>116</v>
       </c>
@@ -1199,750 +1191,80 @@
         <v>2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="5">
-        <v>19901</v>
-      </c>
-      <c r="D39" s="3">
-        <v>200</v>
-      </c>
-      <c r="E39" s="3">
-        <v>200</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="3">
-        <v>20135</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="1"/>
-      <c r="C40" s="5">
-        <v>19902</v>
-      </c>
-      <c r="D40" s="3">
-        <v>200</v>
-      </c>
-      <c r="E40" s="3">
-        <v>200</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="5">
-        <v>20136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C41" s="5">
-        <v>19903</v>
-      </c>
-      <c r="D41" s="3">
-        <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="3">
-        <v>20137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C42" s="5">
-        <v>19904</v>
-      </c>
-      <c r="D42" s="3">
-        <v>200</v>
-      </c>
-      <c r="E42" s="3">
-        <v>200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="5">
-        <v>20138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C43" s="5">
-        <v>19905</v>
-      </c>
-      <c r="D43" s="3">
-        <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>200</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C44" s="5">
-        <v>19906</v>
-      </c>
-      <c r="D44" s="3">
-        <v>200</v>
-      </c>
-      <c r="E44" s="3">
-        <v>200</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C45" s="5">
-        <v>19907</v>
-      </c>
-      <c r="D45" s="3">
-        <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C46" s="5">
-        <v>19908</v>
-      </c>
-      <c r="D46" s="3">
-        <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C47" s="5">
-        <v>19909</v>
-      </c>
-      <c r="D47" s="3">
-        <v>200</v>
-      </c>
-      <c r="E47" s="3">
-        <v>200</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I47"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C48" s="5">
-        <v>19910</v>
-      </c>
-      <c r="D48" s="3">
-        <v>200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C49" s="5">
-        <v>19911</v>
-      </c>
-      <c r="D49" s="3">
-        <v>200</v>
-      </c>
-      <c r="E49" s="3">
-        <v>200</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I49"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C50" s="5">
-        <v>19912</v>
-      </c>
-      <c r="D50" s="3">
-        <v>200</v>
-      </c>
-      <c r="E50" s="3">
-        <v>200</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C51" s="5">
-        <v>19913</v>
-      </c>
-      <c r="D51" s="3">
-        <v>200</v>
-      </c>
-      <c r="E51" s="3">
-        <v>200</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I51"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C52" s="5">
-        <v>19914</v>
-      </c>
-      <c r="D52" s="3">
-        <v>200</v>
-      </c>
-      <c r="E52" s="3">
-        <v>200</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I52"/>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C53" s="5">
-        <v>19915</v>
-      </c>
-      <c r="D53" s="3">
-        <v>200</v>
-      </c>
-      <c r="E53" s="3">
-        <v>200</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I53"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="I54"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="5">
-        <v>20001</v>
-      </c>
-      <c r="D55" s="3">
-        <v>201</v>
-      </c>
-      <c r="E55" s="3">
-        <v>201</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H55" s="3">
-        <v>20125</v>
-      </c>
-      <c r="I55"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="5">
-        <v>20002</v>
-      </c>
-      <c r="D56" s="3">
-        <v>201</v>
-      </c>
-      <c r="E56" s="3">
-        <v>201</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H56" s="5">
-        <v>20126</v>
-      </c>
-      <c r="I56"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="5">
-        <v>20003</v>
-      </c>
-      <c r="D57" s="3">
-        <v>201</v>
-      </c>
-      <c r="E57" s="3">
-        <v>201</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H57" s="3">
-        <v>20127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="5">
-        <v>20004</v>
-      </c>
-      <c r="D58" s="3">
-        <v>201</v>
-      </c>
-      <c r="E58" s="3">
-        <v>201</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="5">
-        <v>20128</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="5">
-        <v>20005</v>
-      </c>
-      <c r="D59" s="3">
-        <v>201</v>
-      </c>
-      <c r="E59" s="3">
-        <v>201</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="5">
-        <v>20007</v>
-      </c>
-      <c r="D60" s="3">
-        <v>201</v>
-      </c>
-      <c r="E60" s="3">
-        <v>201</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="5">
-        <v>20008</v>
-      </c>
-      <c r="D61" s="3">
-        <v>201</v>
-      </c>
-      <c r="E61" s="3">
-        <v>201</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="5">
-        <v>20009</v>
-      </c>
-      <c r="D62" s="3">
-        <v>201</v>
-      </c>
-      <c r="E62" s="3">
-        <v>201</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="5">
-        <v>20010</v>
-      </c>
-      <c r="D63" s="3">
-        <v>201</v>
-      </c>
-      <c r="E63" s="3">
-        <v>201</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="5">
-        <v>20011</v>
-      </c>
-      <c r="D64" s="3">
-        <v>201</v>
-      </c>
-      <c r="E64" s="3">
-        <v>201</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C65" s="5">
-        <v>20012</v>
-      </c>
-      <c r="D65" s="3">
-        <v>201</v>
-      </c>
-      <c r="E65" s="3">
-        <v>201</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="5">
-        <v>20013</v>
-      </c>
-      <c r="D66" s="3">
-        <v>201</v>
-      </c>
-      <c r="E66" s="3">
-        <v>201</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="5">
-        <v>20014</v>
-      </c>
-      <c r="D67" s="3">
-        <v>201</v>
-      </c>
-      <c r="E67" s="3">
-        <v>201</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="5">
-        <v>20015</v>
-      </c>
-      <c r="D68" s="3">
-        <v>201</v>
-      </c>
-      <c r="E68" s="3">
-        <v>201</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="5">
-        <v>20016</v>
-      </c>
-      <c r="D69" s="3">
-        <v>201</v>
-      </c>
-      <c r="E69" s="3">
-        <v>201</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-    </row>
-    <row r="81" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1955,7 +1277,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2118,13 +1440,13 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5">
-        <v>20104</v>
+        <v>20304</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE028FAD-4742-446D-B71C-AEA46C130D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7212F7-6F52-4CCA-8CFF-BC9ABC0D86BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -178,6 +178,10 @@
   </si>
   <si>
     <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>#3区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -561,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H46"/>
+  <dimension ref="A3:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1112,7 +1116,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>112</v>
       </c>
@@ -1129,7 +1133,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>113</v>
       </c>
@@ -1146,7 +1150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>114</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>115</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>116</v>
       </c>
@@ -1197,73 +1201,282 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="5">
+        <v>201</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39" s="3">
+        <v>20325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="5">
+        <v>202</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="5">
+        <v>20326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="5">
+        <v>203</v>
+      </c>
+      <c r="D41" s="5">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" s="3">
+        <v>20327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="5">
+        <v>204</v>
+      </c>
+      <c r="D42" s="5">
+        <v>1</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="5">
+        <v>20328</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="5">
+        <v>205</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="5">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="5">
+        <v>206</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5">
+        <v>207</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="5">
+        <v>208</v>
+      </c>
+      <c r="D46" s="5">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>3</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <v>209</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="5">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <v>210</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="5">
+        <v>211</v>
+      </c>
+      <c r="D49" s="5">
+        <v>1</v>
+      </c>
+      <c r="E49" s="5">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="5">
+        <v>212</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <v>213</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="5">
+        <v>214</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="5">
+        <v>215</v>
+      </c>
+      <c r="D53" s="5">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7212F7-6F52-4CCA-8CFF-BC9ABC0D86BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AA8F0E-D5CA-4419-918D-04C976BB02C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -158,14 +158,6 @@
   </si>
   <si>
     <t>#1区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#2区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#每个区100</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -243,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,9 +249,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H53"/>
+  <dimension ref="A3:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -643,7 +632,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -838,7 +827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C17" s="5">
         <v>12</v>
       </c>
@@ -855,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C18" s="5">
         <v>13</v>
       </c>
@@ -872,7 +861,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C19" s="5">
         <v>14</v>
       </c>
@@ -889,7 +878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C20" s="5">
         <v>15</v>
       </c>
@@ -906,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C21" s="5">
         <v>16</v>
       </c>
@@ -917,31 +906,28 @@
         <v>1</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>41</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D23" s="5">
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="5" t="s">
         <v>35</v>
@@ -950,18 +936,18 @@
         <v>35</v>
       </c>
       <c r="H23" s="3">
-        <v>20315</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>20325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="5">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c r="D24" s="5">
         <v>1</v>
       </c>
       <c r="E24" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>13</v>
@@ -970,18 +956,20 @@
         <v>13</v>
       </c>
       <c r="H24" s="5">
-        <v>20316</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20326</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C25" s="5">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D25" s="5">
         <v>1</v>
       </c>
       <c r="E25" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>14</v>
@@ -990,18 +978,18 @@
         <v>15</v>
       </c>
       <c r="H25" s="3">
-        <v>20317</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20327</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C26" s="5">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>38</v>
@@ -1010,18 +998,18 @@
         <v>37</v>
       </c>
       <c r="H26" s="5">
-        <v>20318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20328</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C27" s="5">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
       </c>
       <c r="E27" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -1031,15 +1019,15 @@
       </c>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C28" s="5">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="D28" s="5">
         <v>1</v>
       </c>
-      <c r="E28" s="3">
-        <v>2</v>
+      <c r="E28" s="5">
+        <v>3</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>23</v>
@@ -1048,15 +1036,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C29" s="5">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="D29" s="5">
         <v>1</v>
       </c>
       <c r="E29" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -1065,15 +1053,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C30" s="5">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="D30" s="5">
         <v>1</v>
       </c>
-      <c r="E30" s="3">
-        <v>2</v>
+      <c r="E30" s="5">
+        <v>3</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>25</v>
@@ -1082,15 +1070,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="3">
-        <v>110</v>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <v>209</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
-      <c r="E31" s="3">
-        <v>2</v>
+      <c r="E31" s="5">
+        <v>3</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>27</v>
@@ -1099,15 +1087,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C32" s="5">
-        <v>111</v>
+        <v>210</v>
       </c>
       <c r="D32" s="5">
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>28</v>
@@ -1116,15 +1104,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
-        <v>112</v>
+        <v>211</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="3">
-        <v>2</v>
+      <c r="E33" s="5">
+        <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>29</v>
@@ -1133,15 +1121,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
-        <v>2</v>
+      <c r="E34" s="5">
+        <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>30</v>
@@ -1150,15 +1138,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
-        <v>114</v>
+        <v>213</v>
       </c>
       <c r="D35" s="5">
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>31</v>
@@ -1167,15 +1155,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="3">
-        <v>2</v>
+      <c r="E36" s="5">
+        <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>34</v>
@@ -1184,298 +1172,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
-        <v>116</v>
+        <v>215</v>
       </c>
       <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="3">
-        <v>2</v>
+      <c r="E37" s="5">
+        <v>3</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="5">
-        <v>201</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>3</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="3">
-        <v>20325</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="5">
-        <v>202</v>
-      </c>
-      <c r="D40" s="5">
-        <v>1</v>
-      </c>
-      <c r="E40" s="5">
-        <v>3</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="5">
-        <v>20326</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="5">
-        <v>203</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1</v>
-      </c>
-      <c r="E41" s="5">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" s="3">
-        <v>20327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="5">
-        <v>204</v>
-      </c>
-      <c r="D42" s="5">
-        <v>1</v>
-      </c>
-      <c r="E42" s="3">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="5">
-        <v>20328</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="5">
-        <v>205</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="5">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="5">
-        <v>206</v>
-      </c>
-      <c r="D44" s="5">
-        <v>1</v>
-      </c>
-      <c r="E44" s="5">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="5">
-        <v>207</v>
-      </c>
-      <c r="D45" s="5">
-        <v>1</v>
-      </c>
-      <c r="E45" s="3">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="5">
-        <v>208</v>
-      </c>
-      <c r="D46" s="5">
-        <v>1</v>
-      </c>
-      <c r="E46" s="5">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="5">
-        <v>209</v>
-      </c>
-      <c r="D47" s="3">
-        <v>1</v>
-      </c>
-      <c r="E47" s="5">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="5">
-        <v>210</v>
-      </c>
-      <c r="D48" s="5">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="5">
-        <v>211</v>
-      </c>
-      <c r="D49" s="5">
-        <v>1</v>
-      </c>
-      <c r="E49" s="5">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="5">
-        <v>212</v>
-      </c>
-      <c r="D50" s="5">
-        <v>1</v>
-      </c>
-      <c r="E50" s="5">
-        <v>3</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="5">
-        <v>213</v>
-      </c>
-      <c r="D51" s="5">
-        <v>1</v>
-      </c>
-      <c r="E51" s="3">
-        <v>3</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="5">
-        <v>214</v>
-      </c>
-      <c r="D52" s="5">
-        <v>1</v>
-      </c>
-      <c r="E52" s="5">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="5">
-        <v>215</v>
-      </c>
-      <c r="D53" s="5">
-        <v>1</v>
-      </c>
-      <c r="E53" s="5">
-        <v>3</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1653,10 +1364,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AA8F0E-D5CA-4419-918D-04C976BB02C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29492E-55F1-4F8A-B6D4-EA88F8302824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -75,104 +75,113 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Robot01</t>
+  </si>
+  <si>
+    <t>OuterPort</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMail</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReCharge</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaiMai</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Team</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Friend</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gate1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Union</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Queue</t>
+  </si>
+  <si>
+    <t>Queue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#1区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccountCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#20004-20100</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FubenCenter</t>
+  </si>
+  <si>
+    <t>#3区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Map</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Robot01</t>
-  </si>
-  <si>
-    <t>OuterPort</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Chat</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMail</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReCharge</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaiMai</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Team</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Friend</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gate1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Center</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Union</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Queue</t>
-  </si>
-  <si>
-    <t>Queue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#1区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccountCenter</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#20004-20100</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>#3区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map102</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -554,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:J37"/>
+  <dimension ref="A3:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -607,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -627,12 +636,12 @@
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -643,7 +652,7 @@
     </row>
     <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
@@ -655,10 +664,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="5">
         <v>20305</v>
@@ -698,7 +707,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5">
         <v>20307</v>
@@ -715,10 +724,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H10" s="5">
         <v>20308</v>
@@ -731,20 +740,19 @@
       <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H11" s="5"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -753,32 +761,32 @@
         <v>1</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="5">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -795,7 +803,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5">
         <v>1</v>
@@ -804,102 +812,102 @@
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="5">
+        <v>10</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="5">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="5">
         <v>13</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="5">
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
         <v>14</v>
       </c>
-      <c r="D19" s="5">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="5">
+      <c r="D20" s="5">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="5">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="5">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>1</v>
       </c>
       <c r="E21" s="3">
@@ -912,218 +920,216 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="5">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C23" s="5">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="5">
         <v>201</v>
       </c>
-      <c r="D23" s="5">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>3</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="D25" s="5">
+        <v>1</v>
+      </c>
+      <c r="E25" s="3">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="3">
+        <v>20325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="5">
+        <v>202</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" s="5">
+        <v>20326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="5">
+        <v>203</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="3">
+        <v>20327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="5">
+        <v>204</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H23" s="3">
-        <v>20325</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="5">
-        <v>202</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="5">
-        <v>3</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="5">
-        <v>20326</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C25" s="5">
-        <v>203</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="5">
-        <v>3</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="3">
-        <v>20327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="5">
-        <v>204</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="3">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="5">
+      <c r="H28" s="5">
         <v>20328</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="5">
         <v>205</v>
       </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="D29" s="5">
+        <v>1</v>
+      </c>
+      <c r="E29" s="5">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="5">
+        <v>206</v>
+      </c>
+      <c r="D30" s="5">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3">
+        <v>3</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C28" s="5">
-        <v>206</v>
-      </c>
-      <c r="D28" s="5">
-        <v>1</v>
-      </c>
-      <c r="E28" s="5">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
+      <c r="G30" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="5">
+        <v>207</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C29" s="5">
-        <v>207</v>
-      </c>
-      <c r="D29" s="5">
-        <v>1</v>
-      </c>
-      <c r="E29" s="3">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="5">
         <v>208</v>
       </c>
-      <c r="D30" s="5">
-        <v>1</v>
-      </c>
-      <c r="E30" s="5">
-        <v>3</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="D32" s="5">
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="5">
-        <v>209</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>3</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="5">
-        <v>210</v>
-      </c>
-      <c r="D32" s="5">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D33" s="5">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="3">
         <v>3</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D34" s="5">
         <v>1</v>
@@ -1132,61 +1138,129 @@
         <v>3</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
-        <v>213</v>
-      </c>
-      <c r="D35" s="5">
-        <v>1</v>
-      </c>
-      <c r="E35" s="3">
+        <v>211</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="5">
         <v>3</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D36" s="5">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="3">
         <v>3</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
+        <v>213</v>
+      </c>
+      <c r="D37" s="5">
+        <v>1</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="5">
+        <v>214</v>
+      </c>
+      <c r="D38" s="5">
+        <v>1</v>
+      </c>
+      <c r="E38" s="5">
+        <v>3</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="5">
         <v>215</v>
       </c>
-      <c r="D37" s="5">
-        <v>1</v>
-      </c>
-      <c r="E37" s="5">
-        <v>3</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D39" s="5">
+        <v>1</v>
+      </c>
+      <c r="E39" s="3">
+        <v>3</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="5">
+        <v>216</v>
+      </c>
+      <c r="D40" s="5">
+        <v>1</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="5">
+        <v>217</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="5">
+        <v>3</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1275,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1310,10 +1384,10 @@
         <v>202</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -1328,10 +1402,10 @@
         <v>202</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H7" s="5"/>
     </row>
@@ -1364,10 +1438,10 @@
         <v>202</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5">
         <v>20304</v>
@@ -1378,16 +1452,16 @@
         <v>20205</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>202</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1476,7 @@
   <dimension ref="C3:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1486,10 +1560,10 @@
         <v>203</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="H6" s="5"/>
     </row>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A29492E-55F1-4F8A-B6D4-EA88F8302824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D303B-F842-4844-AE8D-D6187582B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="47">
   <si>
     <t>Id</t>
   </si>
@@ -182,6 +182,10 @@
   </si>
   <si>
     <t>Map102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#4区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H41"/>
+  <dimension ref="A3:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1110,7 +1114,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C33" s="5">
         <v>209</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C34" s="5">
         <v>210</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C35" s="5">
         <v>211</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="5">
         <v>212</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="5">
         <v>213</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="5">
         <v>214</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="5">
         <v>215</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="5">
         <v>216</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="5">
         <v>217</v>
       </c>
@@ -1260,6 +1264,312 @@
         <v>43</v>
       </c>
       <c r="G41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="5">
+        <v>301</v>
+      </c>
+      <c r="D43" s="5">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="5">
+        <v>302</v>
+      </c>
+      <c r="D44" s="5">
+        <v>1</v>
+      </c>
+      <c r="E44" s="5">
+        <v>4</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="5">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="5">
+        <v>303</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45" s="3">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="5">
+        <v>304</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="5">
+        <v>4</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46" s="5">
+        <v>20338</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="5">
+        <v>305</v>
+      </c>
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47" s="3">
+        <v>4</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="5">
+        <v>306</v>
+      </c>
+      <c r="D48" s="5">
+        <v>1</v>
+      </c>
+      <c r="E48" s="5">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="5">
+        <v>307</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="5">
+        <v>308</v>
+      </c>
+      <c r="D50" s="5">
+        <v>1</v>
+      </c>
+      <c r="E50" s="5">
+        <v>4</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="5">
+        <v>309</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1</v>
+      </c>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="5">
+        <v>310</v>
+      </c>
+      <c r="D52" s="5">
+        <v>1</v>
+      </c>
+      <c r="E52" s="5">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="5">
+        <v>311</v>
+      </c>
+      <c r="D53" s="3">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="5">
+        <v>312</v>
+      </c>
+      <c r="D54" s="5">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>4</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="5">
+        <v>313</v>
+      </c>
+      <c r="D55" s="5">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="5">
+        <v>314</v>
+      </c>
+      <c r="D56" s="5">
+        <v>1</v>
+      </c>
+      <c r="E56" s="5">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="5">
+        <v>315</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="5">
+        <v>316</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1</v>
+      </c>
+      <c r="E58" s="5">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="5">
+        <v>317</v>
+      </c>
+      <c r="D59" s="3">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="3" t="s">
         <v>45</v>
       </c>
     </row>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D303B-F842-4844-AE8D-D6187582B806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69996279-B6BE-4DB4-B1F5-698ADD665584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1783,10 +1783,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C3:H6"/>
+  <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -1877,9 +1877,12 @@
       </c>
       <c r="H6" s="5"/>
     </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69996279-B6BE-4DB4-B1F5-698ADD665584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BB17E-3E8E-413C-B739-4C507614B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -742,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1585,7 +1585,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1762,7 +1762,7 @@
         <v>20205</v>
       </c>
       <c r="D10" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="5">
         <v>202</v>

--- a/Excel/StartSceneConfig@s.xlsx
+++ b/Excel/StartSceneConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337BB17E-3E8E-413C-B739-4C507614B50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECC5711-E1D0-4178-A1D3-0688EE57E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="795" windowWidth="24990" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="51">
   <si>
     <t>Id</t>
   </si>
@@ -185,7 +185,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>#4区</t>
+    <t>#7区先锋三区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#8区先锋四区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#9区先锋五区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#10区先锋六区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#5区先锋一区</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -567,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H59"/>
+  <dimension ref="A3:H131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -742,7 +758,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -1267,18 +1283,26 @@
         <v>45</v>
       </c>
     </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="D43" s="5">
         <v>1</v>
       </c>
       <c r="E43" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>33</v>
@@ -1294,13 +1318,13 @@
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="5">
-        <v>302</v>
+        <v>402</v>
       </c>
       <c r="D44" s="5">
         <v>1</v>
       </c>
       <c r="E44" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>13</v>
@@ -1314,13 +1338,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="5">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="D45" s="5">
         <v>1</v>
       </c>
       <c r="E45" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
@@ -1334,13 +1358,13 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="5">
-        <v>304</v>
+        <v>404</v>
       </c>
       <c r="D46" s="3">
         <v>1</v>
       </c>
       <c r="E46" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>36</v>
@@ -1354,13 +1378,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="5">
-        <v>305</v>
+        <v>405</v>
       </c>
       <c r="D47" s="5">
         <v>1</v>
       </c>
       <c r="E47" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>21</v>
@@ -1371,13 +1395,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="5">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="D48" s="5">
         <v>1</v>
       </c>
       <c r="E48" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>22</v>
@@ -1386,15 +1410,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C49" s="5">
-        <v>307</v>
+        <v>407</v>
       </c>
       <c r="D49" s="3">
         <v>1</v>
       </c>
       <c r="E49" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>23</v>
@@ -1403,15 +1427,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C50" s="5">
-        <v>308</v>
+        <v>408</v>
       </c>
       <c r="D50" s="5">
         <v>1</v>
       </c>
       <c r="E50" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>25</v>
@@ -1420,15 +1444,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C51" s="5">
-        <v>309</v>
+        <v>409</v>
       </c>
       <c r="D51" s="5">
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>26</v>
@@ -1437,15 +1461,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C52" s="5">
-        <v>310</v>
+        <v>410</v>
       </c>
       <c r="D52" s="5">
         <v>1</v>
       </c>
       <c r="E52" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>27</v>
@@ -1454,15 +1478,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C53" s="5">
-        <v>311</v>
+        <v>411</v>
       </c>
       <c r="D53" s="3">
         <v>1</v>
       </c>
       <c r="E53" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>28</v>
@@ -1471,15 +1495,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C54" s="5">
-        <v>312</v>
+        <v>412</v>
       </c>
       <c r="D54" s="5">
         <v>1</v>
       </c>
       <c r="E54" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>29</v>
@@ -1488,15 +1512,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C55" s="5">
-        <v>313</v>
+        <v>413</v>
       </c>
       <c r="D55" s="5">
         <v>1</v>
       </c>
       <c r="E55" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>32</v>
@@ -1505,15 +1529,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C56" s="5">
-        <v>314</v>
+        <v>414</v>
       </c>
       <c r="D56" s="5">
         <v>1</v>
       </c>
       <c r="E56" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>40</v>
@@ -1522,15 +1546,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C57" s="5">
-        <v>315</v>
+        <v>415</v>
       </c>
       <c r="D57" s="5">
         <v>1</v>
       </c>
       <c r="E57" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>42</v>
@@ -1539,15 +1563,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C58" s="5">
-        <v>316</v>
+        <v>416</v>
       </c>
       <c r="D58" s="5">
         <v>1</v>
       </c>
       <c r="E58" s="5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>43</v>
@@ -1556,20 +1580,1244 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C59" s="5">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="D59" s="3">
         <v>1</v>
       </c>
       <c r="E59" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>43</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="5">
+        <v>601</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>7</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H61" s="3">
+        <v>20355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="5">
+        <v>602</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1</v>
+      </c>
+      <c r="E62" s="5">
+        <v>7</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" s="5">
+        <v>20356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="5">
+        <v>603</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63" s="3">
+        <v>20357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="5">
+        <v>604</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3">
+        <v>7</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="5">
+        <v>20358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="5">
+        <v>605</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1</v>
+      </c>
+      <c r="E65" s="5">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="5">
+        <v>606</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3">
+        <v>7</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="5">
+        <v>607</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="3">
+        <v>7</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C68" s="5">
+        <v>608</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1</v>
+      </c>
+      <c r="E68" s="5">
+        <v>7</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="5">
+        <v>609</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="5">
+        <v>610</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1</v>
+      </c>
+      <c r="E70" s="5">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="5">
+        <v>611</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>7</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="5">
+        <v>612</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="5">
+        <v>613</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1</v>
+      </c>
+      <c r="E73" s="5">
+        <v>7</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="5">
+        <v>614</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1</v>
+      </c>
+      <c r="E74" s="3">
+        <v>7</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="5">
+        <v>615</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="3">
+        <v>7</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="5">
+        <v>616</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="5">
+        <v>7</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="5">
+        <v>617</v>
+      </c>
+      <c r="D77" s="3">
+        <v>1</v>
+      </c>
+      <c r="E77" s="3">
+        <v>7</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="5">
+        <v>701</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" s="3">
+        <v>20365</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="5">
+        <v>702</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1</v>
+      </c>
+      <c r="E80" s="5">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="5">
+        <v>20366</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="5">
+        <v>703</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="3">
+        <v>20367</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="5">
+        <v>704</v>
+      </c>
+      <c r="D82" s="3">
+        <v>1</v>
+      </c>
+      <c r="E82" s="5">
+        <v>8</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82" s="5">
+        <v>20368</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="5">
+        <v>705</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>8</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="5">
+        <v>706</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1</v>
+      </c>
+      <c r="E84" s="5">
+        <v>8</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="5">
+        <v>707</v>
+      </c>
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+      <c r="E85" s="3">
+        <v>8</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="5">
+        <v>708</v>
+      </c>
+      <c r="D86" s="5">
+        <v>1</v>
+      </c>
+      <c r="E86" s="5">
+        <v>8</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="5">
+        <v>709</v>
+      </c>
+      <c r="D87" s="5">
+        <v>1</v>
+      </c>
+      <c r="E87" s="3">
+        <v>8</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="5">
+        <v>710</v>
+      </c>
+      <c r="D88" s="5">
+        <v>1</v>
+      </c>
+      <c r="E88" s="5">
+        <v>8</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="5">
+        <v>711</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="3">
+        <v>8</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="5">
+        <v>712</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1</v>
+      </c>
+      <c r="E90" s="5">
+        <v>8</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="5">
+        <v>713</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="5">
+        <v>714</v>
+      </c>
+      <c r="D92" s="5">
+        <v>1</v>
+      </c>
+      <c r="E92" s="5">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="5">
+        <v>715</v>
+      </c>
+      <c r="D93" s="5">
+        <v>1</v>
+      </c>
+      <c r="E93" s="3">
+        <v>8</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="5">
+        <v>716</v>
+      </c>
+      <c r="D94" s="5">
+        <v>1</v>
+      </c>
+      <c r="E94" s="5">
+        <v>8</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="5">
+        <v>717</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="3">
+        <v>8</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C97" s="5">
+        <v>801</v>
+      </c>
+      <c r="D97" s="5">
+        <v>1</v>
+      </c>
+      <c r="E97" s="3">
+        <v>9</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="3">
+        <v>20375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="5">
+        <v>802</v>
+      </c>
+      <c r="D98" s="5">
+        <v>1</v>
+      </c>
+      <c r="E98" s="5">
+        <v>9</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="5">
+        <v>20376</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C99" s="5">
+        <v>803</v>
+      </c>
+      <c r="D99" s="5">
+        <v>1</v>
+      </c>
+      <c r="E99" s="3">
+        <v>9</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99" s="3">
+        <v>20377</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="5">
+        <v>804</v>
+      </c>
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+      <c r="E100" s="5">
+        <v>9</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" s="5">
+        <v>20378</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="5">
+        <v>805</v>
+      </c>
+      <c r="D101" s="5">
+        <v>1</v>
+      </c>
+      <c r="E101" s="3">
+        <v>9</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="5">
+        <v>806</v>
+      </c>
+      <c r="D102" s="5">
+        <v>1</v>
+      </c>
+      <c r="E102" s="5">
+        <v>9</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="5">
+        <v>807</v>
+      </c>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>9</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="5">
+        <v>808</v>
+      </c>
+      <c r="D104" s="5">
+        <v>1</v>
+      </c>
+      <c r="E104" s="5">
+        <v>9</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C105" s="5">
+        <v>809</v>
+      </c>
+      <c r="D105" s="5">
+        <v>1</v>
+      </c>
+      <c r="E105" s="3">
+        <v>9</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="5">
+        <v>810</v>
+      </c>
+      <c r="D106" s="5">
+        <v>1</v>
+      </c>
+      <c r="E106" s="5">
+        <v>9</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="5">
+        <v>811</v>
+      </c>
+      <c r="D107" s="3">
+        <v>1</v>
+      </c>
+      <c r="E107" s="3">
+        <v>9</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C108" s="5">
+        <v>812</v>
+      </c>
+      <c r="D108" s="5">
+        <v>1</v>
+      </c>
+      <c r="E108" s="5">
+        <v>9</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C109" s="5">
+        <v>813</v>
+      </c>
+      <c r="D109" s="5">
+        <v>1</v>
+      </c>
+      <c r="E109" s="3">
+        <v>9</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="5">
+        <v>814</v>
+      </c>
+      <c r="D110" s="5">
+        <v>1</v>
+      </c>
+      <c r="E110" s="5">
+        <v>9</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C111" s="5">
+        <v>815</v>
+      </c>
+      <c r="D111" s="5">
+        <v>1</v>
+      </c>
+      <c r="E111" s="3">
+        <v>9</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C112" s="5">
+        <v>816</v>
+      </c>
+      <c r="D112" s="5">
+        <v>1</v>
+      </c>
+      <c r="E112" s="5">
+        <v>9</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C113" s="5">
+        <v>817</v>
+      </c>
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+      <c r="E113" s="3">
+        <v>9</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="5">
+        <v>901</v>
+      </c>
+      <c r="D115" s="5">
+        <v>1</v>
+      </c>
+      <c r="E115" s="3">
+        <v>10</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H115" s="3">
+        <v>20385</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="5">
+        <v>902</v>
+      </c>
+      <c r="D116" s="5">
+        <v>1</v>
+      </c>
+      <c r="E116" s="5">
+        <v>10</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" s="5">
+        <v>20386</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C117" s="5">
+        <v>903</v>
+      </c>
+      <c r="D117" s="5">
+        <v>1</v>
+      </c>
+      <c r="E117" s="3">
+        <v>10</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117" s="3">
+        <v>20387</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C118" s="5">
+        <v>904</v>
+      </c>
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+      <c r="E118" s="3">
+        <v>10</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H118" s="5">
+        <v>20388</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C119" s="5">
+        <v>905</v>
+      </c>
+      <c r="D119" s="5">
+        <v>1</v>
+      </c>
+      <c r="E119" s="5">
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C120" s="5">
+        <v>906</v>
+      </c>
+      <c r="D120" s="5">
+        <v>1</v>
+      </c>
+      <c r="E120" s="3">
+        <v>10</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C121" s="5">
+        <v>907</v>
+      </c>
+      <c r="D121" s="3">
+        <v>1</v>
+      </c>
+      <c r="E121" s="3">
+        <v>10</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C122" s="5">
+        <v>908</v>
+      </c>
+      <c r="D122" s="5">
+        <v>1</v>
+      </c>
+      <c r="E122" s="5">
+        <v>10</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C123" s="5">
+        <v>909</v>
+      </c>
+      <c r="D123" s="5">
+        <v>1</v>
+      </c>
+      <c r="E123" s="3">
+        <v>10</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C124" s="5">
+        <v>910</v>
+      </c>
+      <c r="D124" s="5">
+        <v>1</v>
+      </c>
+      <c r="E124" s="3">
+        <v>10</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C125" s="5">
+        <v>911</v>
+      </c>
+      <c r="D125" s="3">
+        <v>1</v>
+      </c>
+      <c r="E125" s="5">
+        <v>10</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C126" s="5">
+        <v>912</v>
+      </c>
+      <c r="D126" s="5">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3">
+        <v>10</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C127" s="5">
+        <v>913</v>
+      </c>
+      <c r="D127" s="5">
+        <v>1</v>
+      </c>
+      <c r="E127" s="3">
+        <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C128" s="5">
+        <v>914</v>
+      </c>
+      <c r="D128" s="5">
+        <v>1</v>
+      </c>
+      <c r="E128" s="5">
+        <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C129" s="5">
+        <v>915</v>
+      </c>
+      <c r="D129" s="5">
+        <v>1</v>
+      </c>
+      <c r="E129" s="3">
+        <v>10</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C130" s="5">
+        <v>916</v>
+      </c>
+      <c r="D130" s="5">
+        <v>1</v>
+      </c>
+      <c r="E130" s="3">
+        <v>10</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C131" s="5">
+        <v>917</v>
+      </c>
+      <c r="D131" s="3">
+        <v>1</v>
+      </c>
+      <c r="E131" s="5">
+        <v>10</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1585,7 +2833,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1762,7 +3010,7 @@
         <v>20205</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" s="5">
         <v>202</v>
@@ -1786,7 +3034,7 @@
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
